--- a/support_files/droughtDataWorkbook.xlsx
+++ b/support_files/droughtDataWorkbook.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b6dc1e37edb00998/Desktop/Bootcamp/assignments/project03/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rockr\OneDrive\Desktop\Bootcamp\assignments\project03\droughtAndFireRisk\support_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{F37910E6-DECF-45E0-94CF-11656FE34B25}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{5E73BD6E-83CB-45BE-8555-B7D86EC77CF4}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{F37910E6-DECF-45E0-94CF-11656FE34B25}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{D96204A0-181B-4033-A1C8-0BBAA1A6FC90}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{A4936B1B-5DDE-478F-BC68-5ABE903B021D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{A4936B1B-5DDE-478F-BC68-5ABE903B021D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (3)" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1 (4)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Week</t>
   </si>
@@ -92,6 +93,9 @@
   <si>
     <t>Total Drought %</t>
   </si>
+  <si>
+    <t>Drought Status</t>
+  </si>
 </sst>
 </file>
 
@@ -100,7 +104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,8 +143,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,8 +213,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -262,12 +298,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -312,6 +520,38 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14101,6 +14341,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>570196</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC461DA6-94DB-4E06-A0EB-2084868F52B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="1952625"/>
+          <a:ext cx="10428571" cy="1009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -30514,7 +30803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111AE761-5DAE-440F-AD7A-A20203E4A344}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
@@ -60531,4 +60820,77 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9DDFD3-B4E3-479D-B332-C6B8C8B93DC1}">
+  <dimension ref="C3:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="7" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:7" ht="15.75" thickBot="1"/>
+    <row r="4" spans="3:7" ht="16.5" thickBot="1">
+      <c r="C4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="3:7" ht="15.75">
+      <c r="C5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="3:7" ht="30.75" thickBot="1">
+      <c r="C7" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>